--- a/ASIA JAYA 11 Jan (1).xlsx
+++ b/ASIA JAYA 11 Jan (1).xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\asia_jaya\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -790,7 +785,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -825,7 +820,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1002,7 +997,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1010,11 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X547"/>
+  <dimension ref="A1:X548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
+      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A434" sqref="A434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1169,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7007</v>
+        <v>7006</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1200,7 +1195,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7008</v>
+        <v>7006</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1226,7 +1221,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7009</v>
+        <v>7006</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1252,7 +1247,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7010</v>
+        <v>7006</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1278,7 +1273,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7011</v>
+        <v>7006</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1304,7 +1299,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7012</v>
+        <v>7006</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1330,7 +1325,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7013</v>
+        <v>7006</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1356,7 +1351,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7014</v>
+        <v>7006</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1382,7 +1377,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7015</v>
+        <v>7006</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1434,7 +1429,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>8831</v>
+        <v>8830</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1460,7 +1455,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8832</v>
+        <v>8830</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1486,7 +1481,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8833</v>
+        <v>8830</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -3434,53 +3429,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>1309</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>25</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>47</v>
       </c>
-      <c r="D91">
-        <v>10</v>
-      </c>
-      <c r="E91">
-        <v>20</v>
-      </c>
-      <c r="F91">
-        <v>20</v>
-      </c>
-      <c r="G91">
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+      <c r="F92">
+        <v>20</v>
+      </c>
+      <c r="G92">
         <v>2</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>48</v>
-      </c>
-      <c r="B92" t="s">
-        <v>30</v>
-      </c>
-      <c r="C92" t="s">
-        <v>45</v>
-      </c>
-      <c r="D92">
-        <v>10</v>
-      </c>
-      <c r="E92">
-        <v>20</v>
-      </c>
-      <c r="F92">
-        <v>20</v>
-      </c>
-      <c r="G92">
-        <v>6</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3494,7 +3463,7 @@
         <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D93">
         <v>10</v>
@@ -3506,7 +3475,7 @@
         <v>20</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3520,7 +3489,7 @@
         <v>30</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D94">
         <v>10</v>
@@ -3532,7 +3501,7 @@
         <v>20</v>
       </c>
       <c r="G94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3546,7 +3515,7 @@
         <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D95">
         <v>10</v>
@@ -3558,7 +3527,7 @@
         <v>20</v>
       </c>
       <c r="G95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3572,53 +3541,53 @@
         <v>30</v>
       </c>
       <c r="C96" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>20</v>
+      </c>
+      <c r="F96">
+        <v>20</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" t="s">
         <v>46</v>
       </c>
-      <c r="D96">
-        <v>10</v>
-      </c>
-      <c r="E96">
-        <v>20</v>
-      </c>
-      <c r="F96">
-        <v>20</v>
-      </c>
-      <c r="G96">
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+      <c r="F97">
+        <v>20</v>
+      </c>
+      <c r="G97">
         <v>5</v>
       </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>2682</v>
-      </c>
-      <c r="B97" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97" t="s">
-        <v>27</v>
-      </c>
-      <c r="D97">
-        <v>10</v>
-      </c>
-      <c r="E97">
-        <v>20</v>
-      </c>
-      <c r="F97">
-        <v>20</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>49</v>
       </c>
       <c r="B98" t="s">
         <v>25</v>
@@ -3636,15 +3605,15 @@
         <v>20</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>87</v>
+      <c r="A99" t="s">
+        <v>49</v>
       </c>
       <c r="B99" t="s">
         <v>25</v>
@@ -3662,7 +3631,7 @@
         <v>20</v>
       </c>
       <c r="G99">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -3670,7 +3639,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
         <v>25</v>
@@ -3688,7 +3657,7 @@
         <v>20</v>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3696,7 +3665,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B101" t="s">
         <v>25</v>
@@ -3714,7 +3683,7 @@
         <v>20</v>
       </c>
       <c r="G101">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3722,7 +3691,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
         <v>25</v>
@@ -3740,33 +3709,33 @@
         <v>20</v>
       </c>
       <c r="G102">
+        <v>29</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>89</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>20</v>
+      </c>
+      <c r="F103">
+        <v>20</v>
+      </c>
+      <c r="G103">
         <v>7</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>50</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>32</v>
-      </c>
-      <c r="D103">
-        <v>10</v>
-      </c>
-      <c r="E103">
-        <v>20</v>
-      </c>
-      <c r="F103">
-        <v>20</v>
-      </c>
-      <c r="G103">
-        <v>5</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3780,7 +3749,7 @@
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104">
         <v>10</v>
@@ -3792,7 +3761,7 @@
         <v>20</v>
       </c>
       <c r="G104">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3806,42 +3775,45 @@
         <v>8</v>
       </c>
       <c r="C105" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>20</v>
+      </c>
+      <c r="F105">
+        <v>20</v>
+      </c>
+      <c r="G105">
+        <v>7</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
         <v>46</v>
       </c>
-      <c r="D105">
-        <v>10</v>
-      </c>
-      <c r="E105">
-        <v>20</v>
-      </c>
-      <c r="F105">
-        <v>20</v>
-      </c>
-      <c r="G105">
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>20</v>
+      </c>
+      <c r="F106">
+        <v>20</v>
+      </c>
+      <c r="G106">
         <v>3</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>822</v>
-      </c>
-      <c r="C106" t="s">
-        <v>51</v>
-      </c>
-      <c r="D106">
-        <v>10</v>
-      </c>
-      <c r="E106">
-        <v>20</v>
-      </c>
-      <c r="F106">
-        <v>20</v>
-      </c>
-      <c r="G106">
-        <v>7</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3852,7 +3824,7 @@
         <v>822</v>
       </c>
       <c r="C107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -3864,7 +3836,7 @@
         <v>20</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3875,74 +3847,74 @@
         <v>822</v>
       </c>
       <c r="C108" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>20</v>
+      </c>
+      <c r="F108">
+        <v>20</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>822</v>
+      </c>
+      <c r="C109" t="s">
         <v>53</v>
       </c>
-      <c r="D108">
-        <v>10</v>
-      </c>
-      <c r="E108">
-        <v>20</v>
-      </c>
-      <c r="F108">
-        <v>20</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <v>20</v>
+      </c>
+      <c r="F109">
+        <v>20</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>55</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>54</v>
       </c>
-      <c r="D109">
-        <v>10</v>
-      </c>
-      <c r="E109">
-        <v>20</v>
-      </c>
-      <c r="F109">
-        <v>20</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>9961</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111">
-        <v>10</v>
-      </c>
-      <c r="E111">
-        <v>20</v>
-      </c>
-      <c r="F111">
-        <v>20</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="D110">
+        <v>10</v>
+      </c>
+      <c r="E110">
+        <v>20</v>
+      </c>
+      <c r="F110">
+        <v>20</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>8604</v>
+        <v>9961</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -3965,13 +3937,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>8611</v>
+        <v>8604</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
-      </c>
-      <c r="C113" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D113">
         <v>10</v>
@@ -3983,7 +3952,7 @@
         <v>20</v>
       </c>
       <c r="G113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -3991,25 +3960,25 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>5141</v>
+        <v>8611</v>
       </c>
       <c r="B114" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D114">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="F114">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -4023,7 +3992,7 @@
         <v>56</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D115">
         <v>138</v>
@@ -4049,7 +4018,7 @@
         <v>56</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D116">
         <v>138</v>
@@ -4068,23 +4037,23 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>57</v>
+      <c r="A117">
+        <v>5141</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C117" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="E117">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="F117">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -4101,7 +4070,7 @@
         <v>25</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D118">
         <v>10</v>
@@ -4127,7 +4096,7 @@
         <v>25</v>
       </c>
       <c r="C119" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D119">
         <v>10</v>
@@ -4147,13 +4116,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C120" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D120">
         <v>10</v>
@@ -4179,7 +4148,7 @@
         <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D121">
         <v>10</v>
@@ -4191,7 +4160,7 @@
         <v>20</v>
       </c>
       <c r="G121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -4205,42 +4174,42 @@
         <v>60</v>
       </c>
       <c r="C122" t="s">
+        <v>62</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>20</v>
+      </c>
+      <c r="F122">
+        <v>20</v>
+      </c>
+      <c r="G122">
+        <v>5</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>61</v>
+      </c>
+      <c r="B123" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123" t="s">
         <v>47</v>
       </c>
-      <c r="D122">
-        <v>10</v>
-      </c>
-      <c r="E122">
-        <v>20</v>
-      </c>
-      <c r="F122">
-        <v>20</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>5143</v>
-      </c>
-      <c r="B123" t="s">
-        <v>56</v>
-      </c>
-      <c r="C123" t="s">
-        <v>45</v>
-      </c>
       <c r="D123">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="E123">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="F123">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -4257,7 +4226,7 @@
         <v>56</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D124">
         <v>138</v>
@@ -4269,33 +4238,33 @@
         <v>165</v>
       </c>
       <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5143</v>
+      </c>
+      <c r="B125" t="s">
+        <v>56</v>
+      </c>
+      <c r="C125" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125">
+        <v>138</v>
+      </c>
+      <c r="E125">
+        <v>150</v>
+      </c>
+      <c r="F125">
+        <v>165</v>
+      </c>
+      <c r="G125">
         <v>3</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>63</v>
-      </c>
-      <c r="B125" t="s">
-        <v>25</v>
-      </c>
-      <c r="C125" t="s">
-        <v>64</v>
-      </c>
-      <c r="D125">
-        <v>10</v>
-      </c>
-      <c r="E125">
-        <v>20</v>
-      </c>
-      <c r="F125">
-        <v>20</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -4309,68 +4278,71 @@
         <v>25</v>
       </c>
       <c r="C126" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126">
+        <v>10</v>
+      </c>
+      <c r="E126">
+        <v>20</v>
+      </c>
+      <c r="F126">
+        <v>20</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>63</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" t="s">
         <v>65</v>
       </c>
-      <c r="D126">
-        <v>10</v>
-      </c>
-      <c r="E126">
-        <v>20</v>
-      </c>
-      <c r="F126">
-        <v>20</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127">
+        <v>20</v>
+      </c>
+      <c r="F127">
+        <v>20</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>8863</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>8</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>31</v>
       </c>
-      <c r="D127">
-        <v>10</v>
-      </c>
-      <c r="E127">
-        <v>20</v>
-      </c>
-      <c r="F127">
-        <v>20</v>
-      </c>
-      <c r="G127">
+      <c r="D128">
+        <v>10</v>
+      </c>
+      <c r="E128">
+        <v>20</v>
+      </c>
+      <c r="F128">
+        <v>20</v>
+      </c>
+      <c r="G128">
         <v>2</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>66</v>
-      </c>
-      <c r="C128" t="s">
-        <v>44</v>
-      </c>
-      <c r="D128">
-        <v>10</v>
-      </c>
-      <c r="E128">
-        <v>20</v>
-      </c>
-      <c r="F128">
-        <v>20</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -4378,13 +4350,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>67</v>
-      </c>
-      <c r="B129" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D129">
         <v>10</v>
@@ -4404,13 +4373,13 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C130" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D130">
         <v>10</v>
@@ -4422,7 +4391,7 @@
         <v>20</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -4430,13 +4399,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B131" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C131" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D131">
         <v>10</v>
@@ -4448,7 +4417,7 @@
         <v>20</v>
       </c>
       <c r="G131">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -4462,7 +4431,7 @@
         <v>71</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D132">
         <v>10</v>
@@ -4474,7 +4443,7 @@
         <v>20</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -4488,45 +4457,45 @@
         <v>71</v>
       </c>
       <c r="C133" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133">
+        <v>10</v>
+      </c>
+      <c r="E133">
+        <v>20</v>
+      </c>
+      <c r="F133">
+        <v>20</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>71</v>
+      </c>
+      <c r="C134" t="s">
         <v>72</v>
       </c>
-      <c r="D133">
-        <v>10</v>
-      </c>
-      <c r="E133">
-        <v>20</v>
-      </c>
-      <c r="F133">
-        <v>20</v>
-      </c>
-      <c r="G133">
+      <c r="D134">
+        <v>10</v>
+      </c>
+      <c r="E134">
+        <v>20</v>
+      </c>
+      <c r="F134">
+        <v>20</v>
+      </c>
+      <c r="G134">
         <v>5</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>5153</v>
-      </c>
-      <c r="B134" t="s">
-        <v>56</v>
-      </c>
-      <c r="C134" t="s">
-        <v>31</v>
-      </c>
-      <c r="D134">
-        <v>138</v>
-      </c>
-      <c r="E134">
-        <v>150</v>
-      </c>
-      <c r="F134">
-        <v>165</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -4540,7 +4509,7 @@
         <v>56</v>
       </c>
       <c r="C135" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D135">
         <v>138</v>
@@ -4566,7 +4535,7 @@
         <v>56</v>
       </c>
       <c r="C136" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D136">
         <v>138</v>
@@ -4578,7 +4547,7 @@
         <v>165</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -4586,25 +4555,25 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>5142</v>
+        <v>5153</v>
       </c>
       <c r="B137" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C137" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="E137">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="F137">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -4612,25 +4581,25 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>720</v>
+        <v>5142</v>
       </c>
       <c r="B138" t="s">
         <v>25</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D138">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="E138">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="F138">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="G138">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -4644,7 +4613,7 @@
         <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D139">
         <v>158</v>
@@ -4656,7 +4625,7 @@
         <v>195</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -4670,7 +4639,7 @@
         <v>25</v>
       </c>
       <c r="C140" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D140">
         <v>158</v>
@@ -4682,7 +4651,7 @@
         <v>195</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -4696,7 +4665,7 @@
         <v>25</v>
       </c>
       <c r="C141" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D141">
         <v>158</v>
@@ -4708,7 +4677,7 @@
         <v>195</v>
       </c>
       <c r="G141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -4716,25 +4685,25 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>7891</v>
+        <v>720</v>
       </c>
       <c r="B142" t="s">
         <v>25</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D142">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="E142">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="F142">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -4742,22 +4711,25 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>8013</v>
+        <v>7891</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D143">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="E143">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="F143">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="G143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -4768,7 +4740,7 @@
         <v>8013</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D144">
         <v>150</v>
@@ -4780,7 +4752,7 @@
         <v>195</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -4788,48 +4760,48 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
+        <v>8013</v>
+      </c>
+      <c r="C145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D145">
+        <v>150</v>
+      </c>
+      <c r="E145">
+        <v>160</v>
+      </c>
+      <c r="F145">
+        <v>195</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>2025</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>25</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>32</v>
       </c>
-      <c r="D145">
-        <v>10</v>
-      </c>
-      <c r="E145">
-        <v>20</v>
-      </c>
-      <c r="F145">
-        <v>20</v>
-      </c>
-      <c r="G145">
+      <c r="D146">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>20</v>
+      </c>
+      <c r="F146">
+        <v>20</v>
+      </c>
+      <c r="G146">
         <v>4</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>77</v>
-      </c>
-      <c r="C146" t="s">
-        <v>31</v>
-      </c>
-      <c r="D146">
-        <v>10</v>
-      </c>
-      <c r="E146">
-        <v>20</v>
-      </c>
-      <c r="F146">
-        <v>20</v>
-      </c>
-      <c r="G146">
-        <v>3</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -4837,7 +4809,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C147" t="s">
         <v>31</v>
@@ -4852,33 +4824,30 @@
         <v>20</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>17043</v>
-      </c>
-      <c r="B148" t="s">
-        <v>79</v>
+      <c r="A148" t="s">
+        <v>78</v>
       </c>
       <c r="C148" t="s">
         <v>31</v>
       </c>
       <c r="D148">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="E148">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="F148">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -4892,7 +4861,7 @@
         <v>79</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D149">
         <v>140</v>
@@ -4904,7 +4873,7 @@
         <v>150</v>
       </c>
       <c r="G149">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -4918,7 +4887,7 @@
         <v>79</v>
       </c>
       <c r="C150" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D150">
         <v>140</v>
@@ -4930,7 +4899,7 @@
         <v>150</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -4938,13 +4907,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>8120</v>
+        <v>17043</v>
       </c>
       <c r="B151" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C151" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D151">
         <v>140</v>
@@ -4956,7 +4925,7 @@
         <v>150</v>
       </c>
       <c r="G151">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -4970,7 +4939,7 @@
         <v>80</v>
       </c>
       <c r="C152" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D152">
         <v>140</v>
@@ -4982,7 +4951,7 @@
         <v>150</v>
       </c>
       <c r="G152">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -4996,7 +4965,7 @@
         <v>80</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D153">
         <v>140</v>
@@ -5008,7 +4977,7 @@
         <v>150</v>
       </c>
       <c r="G153">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -5022,7 +4991,7 @@
         <v>80</v>
       </c>
       <c r="C154" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D154">
         <v>140</v>
@@ -5034,21 +5003,21 @@
         <v>150</v>
       </c>
       <c r="G154">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>83</v>
+      <c r="A155">
+        <v>8120</v>
       </c>
       <c r="B155" t="s">
         <v>80</v>
       </c>
       <c r="C155" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="D155">
         <v>140</v>
@@ -5060,7 +5029,7 @@
         <v>150</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -5068,25 +5037,25 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C156" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D156">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="E156">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="F156">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -5100,7 +5069,7 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D157">
         <v>95</v>
@@ -5112,21 +5081,21 @@
         <v>125</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>1818</v>
+      <c r="A158" t="s">
+        <v>84</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D158">
         <v>95</v>
@@ -5152,7 +5121,7 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="D159">
         <v>95</v>
@@ -5164,7 +5133,7 @@
         <v>125</v>
       </c>
       <c r="G159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -5178,7 +5147,7 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D160">
         <v>95</v>
@@ -5190,7 +5159,7 @@
         <v>125</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -5198,25 +5167,25 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1093</v>
+        <v>1818</v>
       </c>
       <c r="B161" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D161">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E161">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F161">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="G161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -5230,7 +5199,7 @@
         <v>88</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D162">
         <v>130</v>
@@ -5242,7 +5211,7 @@
         <v>165</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -5256,7 +5225,7 @@
         <v>88</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D163">
         <v>130</v>
@@ -5276,25 +5245,25 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>835</v>
+        <v>1093</v>
       </c>
       <c r="B164" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D164">
+        <v>130</v>
+      </c>
+      <c r="E164">
+        <v>150</v>
+      </c>
+      <c r="F164">
         <v>165</v>
       </c>
-      <c r="E164">
-        <v>195</v>
-      </c>
-      <c r="F164">
-        <v>215</v>
-      </c>
       <c r="G164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -5308,7 +5277,7 @@
         <v>89</v>
       </c>
       <c r="C165" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D165">
         <v>165</v>
@@ -5320,7 +5289,7 @@
         <v>215</v>
       </c>
       <c r="G165">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -5334,7 +5303,7 @@
         <v>89</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="D166">
         <v>165</v>
@@ -5346,7 +5315,7 @@
         <v>215</v>
       </c>
       <c r="G166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -5360,7 +5329,7 @@
         <v>89</v>
       </c>
       <c r="C167" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D167">
         <v>165</v>
@@ -5372,7 +5341,7 @@
         <v>215</v>
       </c>
       <c r="G167">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -5380,7 +5349,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B168" t="s">
         <v>89</v>
@@ -5398,7 +5367,7 @@
         <v>215</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -5412,7 +5381,7 @@
         <v>89</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D169">
         <v>165</v>
@@ -5438,7 +5407,7 @@
         <v>89</v>
       </c>
       <c r="C170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D170">
         <v>165</v>
@@ -5458,13 +5427,13 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B171" t="s">
         <v>89</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D171">
         <v>165</v>
@@ -5476,7 +5445,7 @@
         <v>215</v>
       </c>
       <c r="G171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -5490,7 +5459,7 @@
         <v>89</v>
       </c>
       <c r="C172" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D172">
         <v>165</v>
@@ -5502,7 +5471,7 @@
         <v>215</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -5516,7 +5485,7 @@
         <v>89</v>
       </c>
       <c r="C173" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D173">
         <v>165</v>
@@ -5536,25 +5505,25 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>29</v>
+        <v>831</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C174" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="D174">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="E174">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="F174">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="G174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -5568,7 +5537,7 @@
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D175">
         <v>60</v>
@@ -5580,7 +5549,7 @@
         <v>75</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -5594,7 +5563,7 @@
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D176">
         <v>60</v>
@@ -5606,7 +5575,7 @@
         <v>75</v>
       </c>
       <c r="G176">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -5620,7 +5589,7 @@
         <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D177">
         <v>60</v>
@@ -5632,7 +5601,7 @@
         <v>75</v>
       </c>
       <c r="G177">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -5646,7 +5615,7 @@
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D178">
         <v>60</v>
@@ -5658,7 +5627,7 @@
         <v>75</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -5672,7 +5641,7 @@
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D179">
         <v>60</v>
@@ -5690,33 +5659,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>5809</v>
-      </c>
-      <c r="B181" t="s">
-        <v>95</v>
-      </c>
-      <c r="C181" t="s">
-        <v>31</v>
-      </c>
-      <c r="D181">
-        <v>100</v>
-      </c>
-      <c r="E181">
-        <v>100</v>
-      </c>
-      <c r="F181">
-        <v>100</v>
-      </c>
-      <c r="G181">
-        <v>12</v>
-      </c>
-      <c r="H181">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>29</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>93</v>
+      </c>
+      <c r="D180">
+        <v>60</v>
+      </c>
+      <c r="E180">
+        <v>75</v>
+      </c>
+      <c r="F180">
+        <v>75</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5809</v>
@@ -5725,7 +5694,7 @@
         <v>95</v>
       </c>
       <c r="C182" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D182">
         <v>100</v>
@@ -5737,7 +5706,7 @@
         <v>100</v>
       </c>
       <c r="G182">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -5751,7 +5720,7 @@
         <v>95</v>
       </c>
       <c r="C183" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D183">
         <v>100</v>
@@ -5763,7 +5732,7 @@
         <v>100</v>
       </c>
       <c r="G183">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -5771,13 +5740,13 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>5810</v>
+        <v>5809</v>
       </c>
       <c r="B184" t="s">
         <v>95</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D184">
         <v>100</v>
@@ -5797,25 +5766,25 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>35</v>
+        <v>5810</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C185" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D185">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E185">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F185">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G185">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -5829,7 +5798,7 @@
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D186">
         <v>61</v>
@@ -5855,7 +5824,7 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D187">
         <v>61</v>
@@ -5867,7 +5836,7 @@
         <v>75</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -5881,7 +5850,7 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D188">
         <v>61</v>
@@ -5901,13 +5870,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D189">
         <v>61</v>
@@ -5919,7 +5888,7 @@
         <v>75</v>
       </c>
       <c r="G189">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -5933,7 +5902,7 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D190">
         <v>61</v>
@@ -5945,7 +5914,7 @@
         <v>75</v>
       </c>
       <c r="G190">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -5959,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D191">
         <v>61</v>
@@ -5971,7 +5940,7 @@
         <v>75</v>
       </c>
       <c r="G191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -5985,7 +5954,7 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D192">
         <v>61</v>
@@ -5997,7 +5966,7 @@
         <v>75</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -6005,13 +5974,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D193">
         <v>61</v>
@@ -6023,7 +5992,7 @@
         <v>75</v>
       </c>
       <c r="G193">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -6037,7 +6006,7 @@
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D194">
         <v>61</v>
@@ -6049,7 +6018,7 @@
         <v>75</v>
       </c>
       <c r="G194">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -6063,7 +6032,7 @@
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D195">
         <v>61</v>
@@ -6075,7 +6044,7 @@
         <v>75</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -6083,22 +6052,22 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>7013</v>
+        <v>32</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="D196">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E196">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F196">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -6115,7 +6084,7 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D197">
         <v>67</v>
@@ -6141,7 +6110,7 @@
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D198">
         <v>67</v>
@@ -6167,7 +6136,7 @@
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D199">
         <v>67</v>
@@ -6193,7 +6162,7 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D200">
         <v>67</v>
@@ -6219,7 +6188,7 @@
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D201">
         <v>67</v>
@@ -6245,7 +6214,7 @@
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D202">
         <v>67</v>
@@ -6265,25 +6234,25 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>8333</v>
+        <v>7013</v>
       </c>
       <c r="B203" t="s">
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="D203">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="E203">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="F203">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="G203">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -6297,7 +6266,7 @@
         <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="D204">
         <v>155</v>
@@ -6309,7 +6278,7 @@
         <v>195</v>
       </c>
       <c r="G204">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -6323,7 +6292,7 @@
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D205">
         <v>155</v>
@@ -6343,13 +6312,13 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>8332</v>
+        <v>8333</v>
       </c>
       <c r="B206" t="s">
         <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D206">
         <v>155</v>
@@ -6361,7 +6330,7 @@
         <v>195</v>
       </c>
       <c r="G206">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -6375,7 +6344,7 @@
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D207">
         <v>155</v>
@@ -6387,7 +6356,7 @@
         <v>195</v>
       </c>
       <c r="G207">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -6401,7 +6370,7 @@
         <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D208">
         <v>155</v>
@@ -6413,7 +6382,7 @@
         <v>195</v>
       </c>
       <c r="G208">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -6421,28 +6390,28 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>856</v>
+        <v>8332</v>
       </c>
       <c r="B209" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D209">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="E209">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F209">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G209">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H209">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -6453,7 +6422,7 @@
         <v>101</v>
       </c>
       <c r="C210" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D210">
         <v>125</v>
@@ -6465,7 +6434,7 @@
         <v>180</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H210">
         <v>10</v>
@@ -6479,7 +6448,7 @@
         <v>101</v>
       </c>
       <c r="C211" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D211">
         <v>125</v>
@@ -6491,10 +6460,10 @@
         <v>180</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -6505,7 +6474,7 @@
         <v>101</v>
       </c>
       <c r="C212" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D212">
         <v>125</v>
@@ -6517,36 +6486,36 @@
         <v>180</v>
       </c>
       <c r="G212">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H212">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>3250</v>
+        <v>856</v>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C213" t="s">
         <v>75</v>
       </c>
       <c r="D213">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="E213">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="F213">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="G213">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -6557,7 +6526,7 @@
         <v>25</v>
       </c>
       <c r="C214" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D214">
         <v>78</v>
@@ -6569,7 +6538,7 @@
         <v>110</v>
       </c>
       <c r="G214">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -6583,7 +6552,7 @@
         <v>25</v>
       </c>
       <c r="C215" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D215">
         <v>78</v>
@@ -6595,7 +6564,7 @@
         <v>110</v>
       </c>
       <c r="G215">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -6609,7 +6578,7 @@
         <v>25</v>
       </c>
       <c r="C216" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D216">
         <v>78</v>
@@ -6621,7 +6590,7 @@
         <v>110</v>
       </c>
       <c r="G216">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -6635,7 +6604,7 @@
         <v>25</v>
       </c>
       <c r="C217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D217">
         <v>78</v>
@@ -6647,7 +6616,7 @@
         <v>110</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -6655,25 +6624,25 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>906</v>
+        <v>3250</v>
       </c>
       <c r="B218" t="s">
         <v>25</v>
       </c>
       <c r="C218" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="D218">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E218">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F218">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -6687,7 +6656,7 @@
         <v>25</v>
       </c>
       <c r="C219" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D219">
         <v>68</v>
@@ -6699,7 +6668,7 @@
         <v>100</v>
       </c>
       <c r="G219">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -6713,7 +6682,7 @@
         <v>25</v>
       </c>
       <c r="C220" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D220">
         <v>68</v>
@@ -6739,7 +6708,7 @@
         <v>25</v>
       </c>
       <c r="C221" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D221">
         <v>68</v>
@@ -6751,7 +6720,7 @@
         <v>100</v>
       </c>
       <c r="G221">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -6765,7 +6734,7 @@
         <v>25</v>
       </c>
       <c r="C222" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D222">
         <v>68</v>
@@ -6777,7 +6746,7 @@
         <v>100</v>
       </c>
       <c r="G222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -6785,16 +6754,16 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>129</v>
+        <v>906</v>
       </c>
       <c r="B223" t="s">
         <v>25</v>
       </c>
       <c r="C223" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D223">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E223">
         <v>100</v>
@@ -6811,25 +6780,25 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>2101</v>
+        <v>129</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C224" t="s">
+        <v>45</v>
+      </c>
+      <c r="D224">
+        <v>65</v>
+      </c>
+      <c r="E224">
         <v>100</v>
       </c>
-      <c r="D224">
-        <v>90</v>
-      </c>
-      <c r="E224">
-        <v>125</v>
-      </c>
       <c r="F224">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G224">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -6843,7 +6812,7 @@
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D225">
         <v>90</v>
@@ -6855,7 +6824,7 @@
         <v>125</v>
       </c>
       <c r="G225">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -6869,7 +6838,7 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D226">
         <v>90</v>
@@ -6881,7 +6850,7 @@
         <v>125</v>
       </c>
       <c r="G226">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -6889,25 +6858,25 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>857</v>
+        <v>2101</v>
       </c>
       <c r="B227" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D227">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E227">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F227">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="G227">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -6921,7 +6890,7 @@
         <v>101</v>
       </c>
       <c r="C228" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D228">
         <v>120</v>
@@ -6933,7 +6902,7 @@
         <v>160</v>
       </c>
       <c r="G228">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -6947,7 +6916,7 @@
         <v>101</v>
       </c>
       <c r="C229" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D229">
         <v>120</v>
@@ -6959,7 +6928,7 @@
         <v>160</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -6973,7 +6942,7 @@
         <v>101</v>
       </c>
       <c r="C230" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D230">
         <v>120</v>
@@ -6999,7 +6968,7 @@
         <v>101</v>
       </c>
       <c r="C231" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D231">
         <v>120</v>
@@ -7011,7 +6980,7 @@
         <v>160</v>
       </c>
       <c r="G231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -7025,7 +6994,7 @@
         <v>101</v>
       </c>
       <c r="C232" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D232">
         <v>120</v>
@@ -7037,7 +7006,7 @@
         <v>160</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -7051,7 +7020,7 @@
         <v>101</v>
       </c>
       <c r="C233" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D233">
         <v>120</v>
@@ -7063,53 +7032,56 @@
         <v>160</v>
       </c>
       <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>857</v>
+      </c>
+      <c r="B234" t="s">
+        <v>101</v>
+      </c>
+      <c r="C234" t="s">
+        <v>73</v>
+      </c>
+      <c r="D234">
+        <v>120</v>
+      </c>
+      <c r="E234">
+        <v>160</v>
+      </c>
+      <c r="F234">
+        <v>160</v>
+      </c>
+      <c r="G234">
         <v>2</v>
       </c>
-      <c r="H233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="H234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>106</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>105</v>
       </c>
-      <c r="D234">
+      <c r="D235">
         <v>45</v>
       </c>
-      <c r="E234">
+      <c r="E235">
         <v>50</v>
       </c>
-      <c r="F234">
+      <c r="F235">
         <v>65</v>
       </c>
-      <c r="G234">
-        <v>10</v>
-      </c>
-      <c r="H234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>8606</v>
-      </c>
-      <c r="C235" t="s">
-        <v>76</v>
-      </c>
-      <c r="D235">
-        <v>10</v>
-      </c>
-      <c r="E235">
-        <v>20</v>
-      </c>
-      <c r="F235">
-        <v>20</v>
-      </c>
       <c r="G235">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -7117,25 +7089,22 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1244</v>
-      </c>
-      <c r="B236" t="s">
-        <v>107</v>
+        <v>8606</v>
       </c>
       <c r="C236" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D236">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E236">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F236">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -7143,19 +7112,25 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>9065</v>
+        <v>1244</v>
+      </c>
+      <c r="B237" t="s">
+        <v>107</v>
+      </c>
+      <c r="C237" t="s">
+        <v>45</v>
       </c>
       <c r="D237">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E237">
+        <v>50</v>
+      </c>
+      <c r="F237">
         <v>80</v>
       </c>
-      <c r="F237">
-        <v>100</v>
-      </c>
       <c r="G237">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -7163,25 +7138,19 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>802</v>
-      </c>
-      <c r="B238" t="s">
-        <v>108</v>
-      </c>
-      <c r="C238" t="s">
-        <v>31</v>
+        <v>9065</v>
       </c>
       <c r="D238">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E238">
+        <v>80</v>
+      </c>
+      <c r="F238">
         <v>100</v>
       </c>
-      <c r="F238">
-        <v>110</v>
-      </c>
       <c r="G238">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -7195,7 +7164,7 @@
         <v>108</v>
       </c>
       <c r="C239" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D239">
         <v>85</v>
@@ -7207,7 +7176,7 @@
         <v>110</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -7215,22 +7184,25 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1912</v>
+        <v>802</v>
+      </c>
+      <c r="B240" t="s">
+        <v>108</v>
       </c>
       <c r="C240" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D240">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="E240">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F240">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G240">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -7241,7 +7213,7 @@
         <v>1912</v>
       </c>
       <c r="C241" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D241">
         <v>135</v>
@@ -7253,7 +7225,7 @@
         <v>150</v>
       </c>
       <c r="G241">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -7264,7 +7236,7 @@
         <v>1912</v>
       </c>
       <c r="C242" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D242">
         <v>135</v>
@@ -7276,7 +7248,7 @@
         <v>150</v>
       </c>
       <c r="G242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -7287,7 +7259,7 @@
         <v>1912</v>
       </c>
       <c r="C243" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D243">
         <v>135</v>
@@ -7305,54 +7277,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>109</v>
-      </c>
-      <c r="B245" t="s">
-        <v>110</v>
-      </c>
-      <c r="C245" t="s">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1912</v>
+      </c>
+      <c r="C244" t="s">
         <v>76</v>
       </c>
-      <c r="D245">
+      <c r="D244">
         <v>135</v>
       </c>
-      <c r="E245">
+      <c r="E244">
         <v>150</v>
       </c>
-      <c r="F245">
+      <c r="F244">
         <v>150</v>
       </c>
-      <c r="G245">
-        <v>2</v>
-      </c>
-      <c r="H245">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B246" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C246" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D246">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="E246">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F246">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G246">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -7366,7 +7335,7 @@
         <v>111</v>
       </c>
       <c r="C247" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D247">
         <v>47</v>
@@ -7378,7 +7347,7 @@
         <v>60</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -7392,7 +7361,7 @@
         <v>111</v>
       </c>
       <c r="C248" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D248">
         <v>47</v>
@@ -7411,23 +7380,26 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>1192</v>
+      <c r="A249" t="s">
+        <v>112</v>
+      </c>
+      <c r="B249" t="s">
+        <v>111</v>
       </c>
       <c r="C249" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="D249">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E249">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F249">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G249">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -7435,34 +7407,34 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
+        <v>1192</v>
+      </c>
+      <c r="C250" t="s">
+        <v>103</v>
+      </c>
+      <c r="D250">
+        <v>10</v>
+      </c>
+      <c r="E250">
+        <v>20</v>
+      </c>
+      <c r="F250">
+        <v>20</v>
+      </c>
+      <c r="G250">
+        <v>3</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251">
         <v>1511</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C251" t="s">
         <v>27</v>
       </c>
-      <c r="D250">
-        <v>10</v>
-      </c>
-      <c r="E250">
-        <v>20</v>
-      </c>
-      <c r="F250">
-        <v>20</v>
-      </c>
-      <c r="G250">
-        <v>20</v>
-      </c>
-      <c r="H250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>113</v>
-      </c>
-      <c r="C251" t="s">
-        <v>31</v>
-      </c>
       <c r="D251">
         <v>10</v>
       </c>
@@ -7473,7 +7445,7 @@
         <v>20</v>
       </c>
       <c r="G251">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -7481,7 +7453,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C252" t="s">
         <v>31</v>
@@ -7496,18 +7468,18 @@
         <v>20</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252">
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>801</v>
+      <c r="A253" t="s">
+        <v>114</v>
       </c>
       <c r="C253" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D253">
         <v>10</v>
@@ -7530,7 +7502,7 @@
         <v>801</v>
       </c>
       <c r="C254" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D254">
         <v>10</v>
@@ -7553,7 +7525,7 @@
         <v>801</v>
       </c>
       <c r="C255" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D255">
         <v>10</v>
@@ -7573,51 +7545,48 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
+        <v>801</v>
+      </c>
+      <c r="C256" t="s">
+        <v>31</v>
+      </c>
+      <c r="D256">
+        <v>10</v>
+      </c>
+      <c r="E256">
+        <v>20</v>
+      </c>
+      <c r="F256">
+        <v>20</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257">
         <v>105</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C257" t="s">
         <v>76</v>
       </c>
-      <c r="D256">
+      <c r="D257">
         <v>140</v>
       </c>
-      <c r="E256">
+      <c r="E257">
         <v>150</v>
       </c>
-      <c r="F256">
-        <v>195</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="H256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>115</v>
-      </c>
-      <c r="B257" t="s">
-        <v>116</v>
-      </c>
-      <c r="C257" t="s">
-        <v>31</v>
-      </c>
-      <c r="D257">
-        <v>85</v>
-      </c>
-      <c r="E257">
-        <v>110</v>
-      </c>
       <c r="F257">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="G257">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -7628,7 +7597,7 @@
         <v>116</v>
       </c>
       <c r="C258" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D258">
         <v>85</v>
@@ -7640,7 +7609,7 @@
         <v>110</v>
       </c>
       <c r="G258">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -7654,7 +7623,7 @@
         <v>116</v>
       </c>
       <c r="C259" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D259">
         <v>85</v>
@@ -7680,7 +7649,7 @@
         <v>116</v>
       </c>
       <c r="C260" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D260">
         <v>85</v>
@@ -7692,7 +7661,7 @@
         <v>110</v>
       </c>
       <c r="G260">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H260">
         <v>1</v>
@@ -7706,7 +7675,7 @@
         <v>116</v>
       </c>
       <c r="C261" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D261">
         <v>85</v>
@@ -7718,7 +7687,7 @@
         <v>110</v>
       </c>
       <c r="G261">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -7732,7 +7701,7 @@
         <v>116</v>
       </c>
       <c r="C262" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D262">
         <v>85</v>
@@ -7744,7 +7713,7 @@
         <v>110</v>
       </c>
       <c r="G262">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -7758,7 +7727,7 @@
         <v>116</v>
       </c>
       <c r="C263" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D263">
         <v>85</v>
@@ -7770,7 +7739,7 @@
         <v>110</v>
       </c>
       <c r="G263">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -7784,7 +7753,7 @@
         <v>116</v>
       </c>
       <c r="C264" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="D264">
         <v>85</v>
@@ -7796,36 +7765,36 @@
         <v>110</v>
       </c>
       <c r="G264">
+        <v>17</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>115</v>
+      </c>
+      <c r="B265" t="s">
+        <v>116</v>
+      </c>
+      <c r="C265" t="s">
+        <v>117</v>
+      </c>
+      <c r="D265">
+        <v>85</v>
+      </c>
+      <c r="E265">
+        <v>110</v>
+      </c>
+      <c r="F265">
+        <v>110</v>
+      </c>
+      <c r="G265">
         <v>16</v>
       </c>
-      <c r="H264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>688</v>
-      </c>
-      <c r="B265" t="s">
-        <v>89</v>
-      </c>
-      <c r="C265" t="s">
-        <v>31</v>
-      </c>
-      <c r="D265">
-        <v>153</v>
-      </c>
-      <c r="E265">
-        <v>195</v>
-      </c>
-      <c r="F265">
-        <v>195</v>
-      </c>
-      <c r="G265">
-        <v>0</v>
-      </c>
       <c r="H265">
-        <v>108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -7836,7 +7805,7 @@
         <v>89</v>
       </c>
       <c r="C266" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D266">
         <v>153</v>
@@ -7851,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="H266">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -7862,7 +7831,7 @@
         <v>89</v>
       </c>
       <c r="C267" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D267">
         <v>153</v>
@@ -7874,7 +7843,7 @@
         <v>195</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267">
         <v>28</v>
@@ -7888,7 +7857,7 @@
         <v>89</v>
       </c>
       <c r="C268" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D268">
         <v>153</v>
@@ -7908,16 +7877,16 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>987</v>
+        <v>688</v>
       </c>
       <c r="B269" t="s">
         <v>89</v>
       </c>
       <c r="C269" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D269">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E269">
         <v>195</v>
@@ -7929,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -7940,7 +7909,7 @@
         <v>89</v>
       </c>
       <c r="C270" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D270">
         <v>154</v>
@@ -7955,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -7966,7 +7935,7 @@
         <v>89</v>
       </c>
       <c r="C271" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D271">
         <v>154</v>
@@ -7992,7 +7961,7 @@
         <v>89</v>
       </c>
       <c r="C272" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D272">
         <v>154</v>
@@ -8004,7 +7973,7 @@
         <v>195</v>
       </c>
       <c r="G272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272">
         <v>28</v>
@@ -8012,16 +7981,16 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>9212</v>
+        <v>987</v>
       </c>
       <c r="B273" t="s">
         <v>89</v>
       </c>
       <c r="C273" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D273">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E273">
         <v>195</v>
@@ -8033,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="H273">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -8044,7 +8013,7 @@
         <v>89</v>
       </c>
       <c r="C274" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D274">
         <v>149</v>
@@ -8059,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="H274">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -8070,7 +8039,7 @@
         <v>89</v>
       </c>
       <c r="C275" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D275">
         <v>149</v>
@@ -8082,7 +8051,7 @@
         <v>195</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275">
         <v>28</v>
@@ -8096,7 +8065,7 @@
         <v>89</v>
       </c>
       <c r="C276" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D276">
         <v>149</v>
@@ -8116,16 +8085,16 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>982</v>
+        <v>9212</v>
       </c>
       <c r="B277" t="s">
         <v>89</v>
       </c>
       <c r="C277" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D277">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E277">
         <v>195</v>
@@ -8137,7 +8106,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -8148,7 +8117,7 @@
         <v>89</v>
       </c>
       <c r="C278" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D278">
         <v>161</v>
@@ -8163,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -8174,7 +8143,7 @@
         <v>89</v>
       </c>
       <c r="C279" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D279">
         <v>161</v>
@@ -8189,33 +8158,33 @@
         <v>1</v>
       </c>
       <c r="H279">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>982</v>
+      </c>
+      <c r="B280" t="s">
+        <v>89</v>
+      </c>
+      <c r="C280" t="s">
+        <v>32</v>
+      </c>
+      <c r="D280">
+        <v>161</v>
+      </c>
+      <c r="E280">
+        <v>195</v>
+      </c>
+      <c r="F280">
+        <v>195</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
         <v>18</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>118</v>
-      </c>
-      <c r="B280" t="s">
-        <v>25</v>
-      </c>
-      <c r="C280" t="s">
-        <v>31</v>
-      </c>
-      <c r="D280">
-        <v>154</v>
-      </c>
-      <c r="E280">
-        <v>195</v>
-      </c>
-      <c r="F280">
-        <v>195</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="H280">
-        <v>69</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -8226,7 +8195,7 @@
         <v>25</v>
       </c>
       <c r="C281" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D281">
         <v>154</v>
@@ -8238,36 +8207,36 @@
         <v>195</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H281">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B282" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C282" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D282">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="E282">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="F282">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="G282">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H282">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -8278,7 +8247,7 @@
         <v>102</v>
       </c>
       <c r="C283" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D283">
         <v>50</v>
@@ -8290,10 +8259,10 @@
         <v>85</v>
       </c>
       <c r="G283">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H283">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -8304,7 +8273,7 @@
         <v>102</v>
       </c>
       <c r="C284" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="D284">
         <v>50</v>
@@ -8319,18 +8288,18 @@
         <v>12</v>
       </c>
       <c r="H284">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B285" t="s">
         <v>102</v>
       </c>
       <c r="C285" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D285">
         <v>50</v>
@@ -8342,10 +8311,10 @@
         <v>85</v>
       </c>
       <c r="G285">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H285">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -8356,7 +8325,7 @@
         <v>102</v>
       </c>
       <c r="C286" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D286">
         <v>50</v>
@@ -8371,7 +8340,7 @@
         <v>5</v>
       </c>
       <c r="H286">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -8382,7 +8351,7 @@
         <v>102</v>
       </c>
       <c r="C287" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D287">
         <v>50</v>
@@ -8397,18 +8366,18 @@
         <v>5</v>
       </c>
       <c r="H287">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B288" t="s">
         <v>102</v>
       </c>
       <c r="C288" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D288">
         <v>50</v>
@@ -8420,10 +8389,10 @@
         <v>85</v>
       </c>
       <c r="G288">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H288">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -8434,7 +8403,7 @@
         <v>102</v>
       </c>
       <c r="C289" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D289">
         <v>50</v>
@@ -8446,10 +8415,10 @@
         <v>85</v>
       </c>
       <c r="G289">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H289">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
@@ -8460,7 +8429,7 @@
         <v>102</v>
       </c>
       <c r="C290" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D290">
         <v>50</v>
@@ -8472,21 +8441,21 @@
         <v>85</v>
       </c>
       <c r="G290">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H290">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B291" t="s">
         <v>102</v>
       </c>
       <c r="C291" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="D291">
         <v>50</v>
@@ -8512,7 +8481,7 @@
         <v>102</v>
       </c>
       <c r="C292" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D292">
         <v>50</v>
@@ -8524,10 +8493,10 @@
         <v>85</v>
       </c>
       <c r="G292">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H292">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -8538,7 +8507,7 @@
         <v>102</v>
       </c>
       <c r="C293" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D293">
         <v>50</v>
@@ -8550,39 +8519,39 @@
         <v>85</v>
       </c>
       <c r="G293">
+        <v>3</v>
+      </c>
+      <c r="H293">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>124</v>
+      </c>
+      <c r="B294" t="s">
+        <v>102</v>
+      </c>
+      <c r="C294" t="s">
+        <v>120</v>
+      </c>
+      <c r="D294">
+        <v>50</v>
+      </c>
+      <c r="E294">
+        <v>85</v>
+      </c>
+      <c r="F294">
+        <v>85</v>
+      </c>
+      <c r="G294">
         <v>5</v>
       </c>
-      <c r="H293">
+      <c r="H294">
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>125</v>
-      </c>
-      <c r="B295" t="s">
-        <v>102</v>
-      </c>
-      <c r="C295" t="s">
-        <v>121</v>
-      </c>
-      <c r="D295">
-        <v>50</v>
-      </c>
-      <c r="E295">
-        <v>85</v>
-      </c>
-      <c r="F295">
-        <v>85</v>
-      </c>
-      <c r="G295">
-        <v>4</v>
-      </c>
-      <c r="H295">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="295" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>125</v>
@@ -8591,7 +8560,7 @@
         <v>102</v>
       </c>
       <c r="C296" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D296">
         <v>50</v>
@@ -8603,10 +8572,10 @@
         <v>85</v>
       </c>
       <c r="G296">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H296">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -8617,7 +8586,7 @@
         <v>102</v>
       </c>
       <c r="C297" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D297">
         <v>50</v>
@@ -8632,18 +8601,18 @@
         <v>5</v>
       </c>
       <c r="H297">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B298" t="s">
         <v>102</v>
       </c>
       <c r="C298" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D298">
         <v>50</v>
@@ -8669,7 +8638,7 @@
         <v>102</v>
       </c>
       <c r="C299" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D299">
         <v>50</v>
@@ -8684,7 +8653,7 @@
         <v>5</v>
       </c>
       <c r="H299">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -8695,7 +8664,7 @@
         <v>102</v>
       </c>
       <c r="C300" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D300">
         <v>50</v>
@@ -8710,33 +8679,33 @@
         <v>5</v>
       </c>
       <c r="H300">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B301" t="s">
         <v>102</v>
       </c>
       <c r="C301" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D301">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E301">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="F301">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G301">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H301">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
@@ -8747,7 +8716,7 @@
         <v>102</v>
       </c>
       <c r="C302" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D302">
         <v>74</v>
@@ -8759,10 +8728,10 @@
         <v>110</v>
       </c>
       <c r="G302">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H302">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -8773,7 +8742,7 @@
         <v>102</v>
       </c>
       <c r="C303" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D303">
         <v>74</v>
@@ -8788,18 +8757,18 @@
         <v>5</v>
       </c>
       <c r="H303">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B304" t="s">
         <v>102</v>
       </c>
       <c r="C304" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="D304">
         <v>74</v>
@@ -8814,18 +8783,18 @@
         <v>5</v>
       </c>
       <c r="H304">
-        <v>94</v>
+        <v>24</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B305" t="s">
         <v>102</v>
       </c>
       <c r="C305" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="D305">
         <v>74</v>
@@ -8837,10 +8806,10 @@
         <v>110</v>
       </c>
       <c r="G305">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H305">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -8851,7 +8820,7 @@
         <v>102</v>
       </c>
       <c r="C306" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D306">
         <v>74</v>
@@ -8866,7 +8835,7 @@
         <v>4</v>
       </c>
       <c r="H306">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -8877,7 +8846,7 @@
         <v>102</v>
       </c>
       <c r="C307" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D307">
         <v>74</v>
@@ -8892,18 +8861,18 @@
         <v>4</v>
       </c>
       <c r="H307">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B308" t="s">
         <v>102</v>
       </c>
       <c r="C308" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D308">
         <v>74</v>
@@ -8915,10 +8884,10 @@
         <v>110</v>
       </c>
       <c r="G308">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H308">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -8929,7 +8898,7 @@
         <v>102</v>
       </c>
       <c r="C309" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D309">
         <v>74</v>
@@ -8944,7 +8913,7 @@
         <v>5</v>
       </c>
       <c r="H309">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
@@ -8955,7 +8924,7 @@
         <v>102</v>
       </c>
       <c r="C310" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D310">
         <v>74</v>
@@ -8970,18 +8939,18 @@
         <v>5</v>
       </c>
       <c r="H310">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B311" t="s">
         <v>102</v>
       </c>
       <c r="C311" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D311">
         <v>74</v>
@@ -9007,7 +8976,7 @@
         <v>102</v>
       </c>
       <c r="C312" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D312">
         <v>74</v>
@@ -9022,7 +8991,7 @@
         <v>5</v>
       </c>
       <c r="H312">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
@@ -9033,7 +9002,7 @@
         <v>102</v>
       </c>
       <c r="C313" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D313">
         <v>74</v>
@@ -9048,33 +9017,33 @@
         <v>5</v>
       </c>
       <c r="H313">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B314" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C314" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D314">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="E314">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="F314">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="G314">
         <v>5</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -9085,7 +9054,7 @@
         <v>25</v>
       </c>
       <c r="C315" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D315">
         <v>145</v>
@@ -9097,7 +9066,7 @@
         <v>185</v>
       </c>
       <c r="G315">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H315">
         <v>0</v>
@@ -9105,25 +9074,25 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B316" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C316" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D316">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E316">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="F316">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="G316">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -9131,16 +9100,16 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B317" t="s">
         <v>88</v>
       </c>
       <c r="C317" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D317">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E317">
         <v>150</v>
@@ -9163,7 +9132,7 @@
         <v>88</v>
       </c>
       <c r="C318" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D318">
         <v>140</v>
@@ -9175,7 +9144,7 @@
         <v>150</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H318">
         <v>0</v>
@@ -9189,7 +9158,7 @@
         <v>88</v>
       </c>
       <c r="C319" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D319">
         <v>140</v>
@@ -9201,36 +9170,36 @@
         <v>150</v>
       </c>
       <c r="G319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H319">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B320" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C320" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D320">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E320">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F320">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
@@ -9241,7 +9210,7 @@
         <v>25</v>
       </c>
       <c r="C321" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D321">
         <v>145</v>
@@ -9253,7 +9222,7 @@
         <v>180</v>
       </c>
       <c r="G321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -9261,25 +9230,25 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B322" t="s">
         <v>25</v>
       </c>
       <c r="C322" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D322">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="E322">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="F322">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="G322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -9287,51 +9256,51 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B323" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="C323" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="D323">
         <v>92</v>
       </c>
       <c r="E323">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F323">
         <v>130</v>
       </c>
       <c r="G323">
+        <v>2</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>139</v>
+      </c>
+      <c r="B324" t="s">
+        <v>108</v>
+      </c>
+      <c r="C324" t="s">
+        <v>94</v>
+      </c>
+      <c r="D324">
+        <v>92</v>
+      </c>
+      <c r="E324">
+        <v>100</v>
+      </c>
+      <c r="F324">
+        <v>130</v>
+      </c>
+      <c r="G324">
         <v>3</v>
-      </c>
-      <c r="H323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>6806</v>
-      </c>
-      <c r="B324" t="s">
-        <v>25</v>
-      </c>
-      <c r="C324" t="s">
-        <v>31</v>
-      </c>
-      <c r="D324">
-        <v>120</v>
-      </c>
-      <c r="E324">
-        <v>120</v>
-      </c>
-      <c r="F324">
-        <v>120</v>
-      </c>
-      <c r="G324">
-        <v>2</v>
       </c>
       <c r="H324">
         <v>0</v>
@@ -9339,25 +9308,25 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>28069</v>
+        <v>6806</v>
       </c>
       <c r="B325" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="C325" t="s">
         <v>31</v>
       </c>
       <c r="D325">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="E325">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F325">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H325">
         <v>0</v>
@@ -9371,7 +9340,7 @@
         <v>108</v>
       </c>
       <c r="C326" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D326">
         <v>85</v>
@@ -9391,22 +9360,22 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>1443</v>
+        <v>28069</v>
       </c>
       <c r="B327" t="s">
         <v>108</v>
       </c>
       <c r="C327" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="D327">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E327">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F327">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G327">
         <v>1</v>
@@ -9417,25 +9386,25 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B328" t="s">
         <v>108</v>
       </c>
       <c r="C328" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D328">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E328">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F328">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G328">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H328">
         <v>0</v>
@@ -9449,7 +9418,7 @@
         <v>108</v>
       </c>
       <c r="C329" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="D329">
         <v>100</v>
@@ -9461,7 +9430,7 @@
         <v>120</v>
       </c>
       <c r="G329">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -9475,7 +9444,7 @@
         <v>108</v>
       </c>
       <c r="C330" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="D330">
         <v>100</v>
@@ -9487,7 +9456,7 @@
         <v>120</v>
       </c>
       <c r="G330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H330">
         <v>0</v>
@@ -9495,22 +9464,22 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B331" t="s">
         <v>108</v>
       </c>
       <c r="C331" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="D331">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E331">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F331">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G331">
         <v>1</v>
@@ -9527,7 +9496,7 @@
         <v>108</v>
       </c>
       <c r="C332" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="D332">
         <v>110</v>
@@ -9539,7 +9508,7 @@
         <v>130</v>
       </c>
       <c r="G332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -9547,19 +9516,19 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>6822</v>
+        <v>1447</v>
       </c>
       <c r="B333" t="s">
         <v>108</v>
       </c>
       <c r="C333" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D333">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E333">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F333">
         <v>130</v>
@@ -9579,7 +9548,7 @@
         <v>108</v>
       </c>
       <c r="C334" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="D334">
         <v>85</v>
@@ -9591,7 +9560,7 @@
         <v>130</v>
       </c>
       <c r="G334">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -9605,7 +9574,7 @@
         <v>108</v>
       </c>
       <c r="C335" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="D335">
         <v>85</v>
@@ -9617,7 +9586,7 @@
         <v>130</v>
       </c>
       <c r="G335">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -9625,25 +9594,25 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>8025</v>
+        <v>6822</v>
       </c>
       <c r="B336" t="s">
         <v>108</v>
       </c>
       <c r="C336" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="D336">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="E336">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F336">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="G336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -9657,7 +9626,7 @@
         <v>108</v>
       </c>
       <c r="C337" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D337">
         <v>140</v>
@@ -9677,13 +9646,13 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>8020</v>
+        <v>8025</v>
       </c>
       <c r="B338" t="s">
         <v>108</v>
       </c>
       <c r="C338" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D338">
         <v>140</v>
@@ -9709,7 +9678,7 @@
         <v>108</v>
       </c>
       <c r="C339" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D339">
         <v>140</v>
@@ -9729,13 +9698,13 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>8026</v>
+        <v>8020</v>
       </c>
       <c r="B340" t="s">
         <v>108</v>
       </c>
       <c r="C340" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="D340">
         <v>140</v>
@@ -9761,7 +9730,7 @@
         <v>108</v>
       </c>
       <c r="C341" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="D341">
         <v>140</v>
@@ -9781,25 +9750,25 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>1819</v>
+        <v>8026</v>
       </c>
       <c r="B342" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C342" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="D342">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="E342">
         <v>150</v>
       </c>
       <c r="F342">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="G342">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H342">
         <v>0</v>
@@ -9813,7 +9782,7 @@
         <v>8</v>
       </c>
       <c r="C343" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="D343">
         <v>117</v>
@@ -9825,7 +9794,7 @@
         <v>150</v>
       </c>
       <c r="G343">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H343">
         <v>0</v>
@@ -9839,7 +9808,7 @@
         <v>8</v>
       </c>
       <c r="C344" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D344">
         <v>117</v>
@@ -9851,7 +9820,7 @@
         <v>150</v>
       </c>
       <c r="G344">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H344">
         <v>0</v>
@@ -9865,7 +9834,7 @@
         <v>8</v>
       </c>
       <c r="C345" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D345">
         <v>117</v>
@@ -9877,7 +9846,7 @@
         <v>150</v>
       </c>
       <c r="G345">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -9891,7 +9860,7 @@
         <v>8</v>
       </c>
       <c r="C346" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D346">
         <v>117</v>
@@ -9903,33 +9872,33 @@
         <v>150</v>
       </c>
       <c r="G346">
+        <v>1</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1819</v>
+      </c>
+      <c r="B347" t="s">
+        <v>8</v>
+      </c>
+      <c r="C347" t="s">
+        <v>15</v>
+      </c>
+      <c r="D347">
+        <v>117</v>
+      </c>
+      <c r="E347">
+        <v>150</v>
+      </c>
+      <c r="F347">
+        <v>150</v>
+      </c>
+      <c r="G347">
         <v>3</v>
-      </c>
-      <c r="H346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>147</v>
-      </c>
-      <c r="B347" t="s">
-        <v>108</v>
-      </c>
-      <c r="C347" t="s">
-        <v>148</v>
-      </c>
-      <c r="D347">
-        <v>10</v>
-      </c>
-      <c r="E347">
-        <v>20</v>
-      </c>
-      <c r="F347">
-        <v>20</v>
-      </c>
-      <c r="G347">
-        <v>1</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -9943,7 +9912,7 @@
         <v>108</v>
       </c>
       <c r="C348" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="D348">
         <v>10</v>
@@ -9969,7 +9938,7 @@
         <v>108</v>
       </c>
       <c r="C349" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="D349">
         <v>10</v>
@@ -9995,7 +9964,7 @@
         <v>108</v>
       </c>
       <c r="C350" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="D350">
         <v>10</v>
@@ -10015,25 +9984,25 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B351" t="s">
         <v>108</v>
       </c>
       <c r="C351" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="D351">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E351">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F351">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="G351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351">
         <v>0</v>
@@ -10047,7 +10016,7 @@
         <v>108</v>
       </c>
       <c r="C352" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="D352">
         <v>127</v>
@@ -10073,7 +10042,7 @@
         <v>108</v>
       </c>
       <c r="C353" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D353">
         <v>127</v>
@@ -10085,33 +10054,33 @@
         <v>150</v>
       </c>
       <c r="G353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H353">
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354">
-        <v>1045</v>
+      <c r="A354" t="s">
+        <v>150</v>
       </c>
       <c r="B354" t="s">
         <v>108</v>
       </c>
       <c r="C354" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D354">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E354">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F354">
         <v>150</v>
       </c>
       <c r="G354">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H354">
         <v>0</v>
@@ -10125,7 +10094,7 @@
         <v>108</v>
       </c>
       <c r="C355" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D355">
         <v>108</v>
@@ -10137,7 +10106,7 @@
         <v>150</v>
       </c>
       <c r="G355">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H355">
         <v>0</v>
@@ -10151,7 +10120,7 @@
         <v>108</v>
       </c>
       <c r="C356" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="D356">
         <v>108</v>
@@ -10163,7 +10132,7 @@
         <v>150</v>
       </c>
       <c r="G356">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H356">
         <v>0</v>
@@ -10177,7 +10146,7 @@
         <v>108</v>
       </c>
       <c r="C357" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="D357">
         <v>108</v>
@@ -10197,25 +10166,25 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>1012</v>
+        <v>1045</v>
       </c>
       <c r="B358" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C358" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D358">
+        <v>108</v>
+      </c>
+      <c r="E358">
         <v>150</v>
       </c>
-      <c r="E358">
-        <v>175</v>
-      </c>
       <c r="F358">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="G358">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H358">
         <v>0</v>
@@ -10229,7 +10198,7 @@
         <v>25</v>
       </c>
       <c r="C359" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="D359">
         <v>150</v>
@@ -10241,7 +10210,7 @@
         <v>195</v>
       </c>
       <c r="G359">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H359">
         <v>0</v>
@@ -10249,13 +10218,13 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>9283</v>
+        <v>1012</v>
       </c>
       <c r="B360" t="s">
         <v>25</v>
       </c>
       <c r="C360" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D360">
         <v>150</v>
@@ -10267,7 +10236,7 @@
         <v>195</v>
       </c>
       <c r="G360">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H360">
         <v>0</v>
@@ -10275,7 +10244,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>8628</v>
+        <v>9283</v>
       </c>
       <c r="B361" t="s">
         <v>25</v>
@@ -10284,16 +10253,16 @@
         <v>152</v>
       </c>
       <c r="D361">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E361">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="F361">
         <v>195</v>
       </c>
       <c r="G361">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H361">
         <v>0</v>
@@ -10301,25 +10270,25 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>932</v>
+        <v>8628</v>
       </c>
       <c r="B362" t="s">
         <v>25</v>
       </c>
       <c r="C362" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D362">
+        <v>132</v>
+      </c>
+      <c r="E362">
         <v>150</v>
       </c>
-      <c r="E362">
-        <v>175</v>
-      </c>
       <c r="F362">
         <v>195</v>
       </c>
       <c r="G362">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -10333,7 +10302,7 @@
         <v>25</v>
       </c>
       <c r="C363" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D363">
         <v>150</v>
@@ -10345,36 +10314,42 @@
         <v>195</v>
       </c>
       <c r="G363">
+        <v>1</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>932</v>
+      </c>
+      <c r="B364" t="s">
+        <v>25</v>
+      </c>
+      <c r="C364" t="s">
+        <v>154</v>
+      </c>
+      <c r="D364">
+        <v>150</v>
+      </c>
+      <c r="E364">
+        <v>175</v>
+      </c>
+      <c r="F364">
+        <v>195</v>
+      </c>
+      <c r="G364">
         <v>2</v>
       </c>
-      <c r="H363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="H364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
         <v>155</v>
-      </c>
-      <c r="D365">
-        <v>10</v>
-      </c>
-      <c r="E365">
-        <v>20</v>
-      </c>
-      <c r="F365">
-        <v>20</v>
-      </c>
-      <c r="G365">
-        <v>1</v>
-      </c>
-      <c r="H365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A366">
-        <v>8353</v>
       </c>
       <c r="D366">
         <v>10</v>
@@ -10394,27 +10369,27 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
+        <v>8353</v>
+      </c>
+      <c r="D367">
+        <v>10</v>
+      </c>
+      <c r="E367">
+        <v>20</v>
+      </c>
+      <c r="F367">
+        <v>20</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368">
         <v>8275</v>
-      </c>
-      <c r="D367">
-        <v>10</v>
-      </c>
-      <c r="E367">
-        <v>20</v>
-      </c>
-      <c r="F367">
-        <v>20</v>
-      </c>
-      <c r="G367">
-        <v>1</v>
-      </c>
-      <c r="H367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>156</v>
       </c>
       <c r="D368">
         <v>10</v>
@@ -10434,42 +10409,39 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>156</v>
+      </c>
+      <c r="D369">
+        <v>10</v>
+      </c>
+      <c r="E369">
+        <v>20</v>
+      </c>
+      <c r="F369">
+        <v>20</v>
+      </c>
+      <c r="G369">
+        <v>1</v>
+      </c>
+      <c r="H369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
         <v>157</v>
       </c>
-      <c r="D369">
+      <c r="D370">
         <v>150</v>
       </c>
-      <c r="E369">
+      <c r="E370">
         <v>175</v>
       </c>
-      <c r="F369">
-        <v>195</v>
-      </c>
-      <c r="G369">
+      <c r="F370">
+        <v>195</v>
+      </c>
+      <c r="G370">
         <v>4</v>
-      </c>
-      <c r="H369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <v>2818</v>
-      </c>
-      <c r="C370" t="s">
-        <v>94</v>
-      </c>
-      <c r="D370">
-        <v>10</v>
-      </c>
-      <c r="E370">
-        <v>20</v>
-      </c>
-      <c r="F370">
-        <v>20</v>
-      </c>
-      <c r="G370">
-        <v>2</v>
       </c>
       <c r="H370">
         <v>0</v>
@@ -10477,25 +10449,22 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>305</v>
-      </c>
-      <c r="B371" t="s">
-        <v>108</v>
+        <v>2818</v>
       </c>
       <c r="C371" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D371">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="E371">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="F371">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="G371">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H371">
         <v>0</v>
@@ -10509,7 +10478,7 @@
         <v>108</v>
       </c>
       <c r="C372" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D372">
         <v>140</v>
@@ -10521,7 +10490,7 @@
         <v>195</v>
       </c>
       <c r="G372">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H372">
         <v>0</v>
@@ -10529,13 +10498,13 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B373" t="s">
         <v>108</v>
       </c>
       <c r="C373" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D373">
         <v>140</v>
@@ -10547,7 +10516,7 @@
         <v>195</v>
       </c>
       <c r="G373">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H373">
         <v>0</v>
@@ -10561,7 +10530,7 @@
         <v>108</v>
       </c>
       <c r="C374" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D374">
         <v>140</v>
@@ -10573,7 +10542,7 @@
         <v>195</v>
       </c>
       <c r="G374">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H374">
         <v>0</v>
@@ -10581,13 +10550,13 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B375" t="s">
         <v>108</v>
       </c>
       <c r="C375" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D375">
         <v>140</v>
@@ -10599,7 +10568,7 @@
         <v>195</v>
       </c>
       <c r="G375">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H375">
         <v>0</v>
@@ -10613,7 +10582,7 @@
         <v>108</v>
       </c>
       <c r="C376" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D376">
         <v>140</v>
@@ -10625,7 +10594,7 @@
         <v>195</v>
       </c>
       <c r="G376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H376">
         <v>0</v>
@@ -10633,13 +10602,13 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B377" t="s">
         <v>108</v>
       </c>
       <c r="C377" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="D377">
         <v>140</v>
@@ -10651,7 +10620,7 @@
         <v>195</v>
       </c>
       <c r="G377">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H377">
         <v>0</v>
@@ -10665,7 +10634,7 @@
         <v>108</v>
       </c>
       <c r="C378" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D378">
         <v>140</v>
@@ -10677,85 +10646,85 @@
         <v>195</v>
       </c>
       <c r="G378">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H378">
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>158</v>
+      <c r="A379">
+        <v>304</v>
       </c>
       <c r="B379" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C379" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D379">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E379">
         <v>150</v>
       </c>
       <c r="F379">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="G379">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H379">
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A380">
-        <v>6789</v>
+      <c r="A380" t="s">
+        <v>158</v>
       </c>
       <c r="B380" t="s">
         <v>25</v>
       </c>
       <c r="C380" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D380">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E380">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F380">
         <v>165</v>
       </c>
       <c r="G380">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H380">
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>159</v>
+      <c r="A381">
+        <v>6789</v>
       </c>
       <c r="B381" t="s">
         <v>25</v>
       </c>
       <c r="C381" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D381">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E381">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F381">
         <v>165</v>
       </c>
       <c r="G381">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H381">
         <v>0</v>
@@ -10769,7 +10738,7 @@
         <v>25</v>
       </c>
       <c r="C382" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D382">
         <v>118</v>
@@ -10781,7 +10750,7 @@
         <v>165</v>
       </c>
       <c r="G382">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H382">
         <v>0</v>
@@ -10789,25 +10758,25 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B383" t="s">
         <v>25</v>
       </c>
       <c r="C383" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D383">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E383">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F383">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G383">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H383">
         <v>0</v>
@@ -10815,7 +10784,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B384" t="s">
         <v>25</v>
@@ -10833,7 +10802,7 @@
         <v>195</v>
       </c>
       <c r="G384">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H384">
         <v>0</v>
@@ -10841,7 +10810,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B385" t="s">
         <v>25</v>
@@ -10859,33 +10828,33 @@
         <v>195</v>
       </c>
       <c r="G385">
+        <v>2</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>162</v>
+      </c>
+      <c r="B386" t="s">
+        <v>25</v>
+      </c>
+      <c r="C386" t="s">
+        <v>27</v>
+      </c>
+      <c r="D386">
+        <v>128</v>
+      </c>
+      <c r="E386">
+        <v>175</v>
+      </c>
+      <c r="F386">
+        <v>195</v>
+      </c>
+      <c r="G386">
         <v>6</v>
-      </c>
-      <c r="H385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A386">
-        <v>8942</v>
-      </c>
-      <c r="B386" t="s">
-        <v>163</v>
-      </c>
-      <c r="C386" t="s">
-        <v>31</v>
-      </c>
-      <c r="D386">
-        <v>113</v>
-      </c>
-      <c r="E386">
-        <v>130</v>
-      </c>
-      <c r="F386">
-        <v>130</v>
-      </c>
-      <c r="G386">
-        <v>3</v>
       </c>
       <c r="H386">
         <v>0</v>
@@ -10899,7 +10868,7 @@
         <v>163</v>
       </c>
       <c r="C387" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D387">
         <v>113</v>
@@ -10919,25 +10888,25 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>8959</v>
+        <v>8942</v>
       </c>
       <c r="B388" t="s">
         <v>163</v>
       </c>
       <c r="C388" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="D388">
         <v>113</v>
       </c>
       <c r="E388">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F388">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G388">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H388">
         <v>0</v>
@@ -10951,7 +10920,7 @@
         <v>163</v>
       </c>
       <c r="C389" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D389">
         <v>113</v>
@@ -10977,7 +10946,7 @@
         <v>163</v>
       </c>
       <c r="C390" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="D390">
         <v>113</v>
@@ -10989,7 +10958,7 @@
         <v>150</v>
       </c>
       <c r="G390">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H390">
         <v>0</v>
@@ -11003,7 +10972,7 @@
         <v>163</v>
       </c>
       <c r="C391" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D391">
         <v>113</v>
@@ -11015,7 +10984,7 @@
         <v>150</v>
       </c>
       <c r="G391">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H391">
         <v>0</v>
@@ -11029,7 +10998,7 @@
         <v>163</v>
       </c>
       <c r="C392" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="D392">
         <v>113</v>
@@ -11041,7 +11010,7 @@
         <v>150</v>
       </c>
       <c r="G392">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H392">
         <v>0</v>
@@ -11055,7 +11024,7 @@
         <v>163</v>
       </c>
       <c r="C393" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D393">
         <v>113</v>
@@ -11075,25 +11044,25 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>8020</v>
+        <v>8959</v>
       </c>
       <c r="B394" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C394" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D394">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="E394">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="F394">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="G394">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H394">
         <v>0</v>
@@ -11101,7 +11070,7 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>8051</v>
+        <v>8020</v>
       </c>
       <c r="B395" t="s">
         <v>170</v>
@@ -11119,15 +11088,15 @@
         <v>195</v>
       </c>
       <c r="G395">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H395">
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>168</v>
+      <c r="A396">
+        <v>8051</v>
       </c>
       <c r="B396" t="s">
         <v>170</v>
@@ -11145,7 +11114,7 @@
         <v>195</v>
       </c>
       <c r="G396">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H396">
         <v>0</v>
@@ -11153,7 +11122,7 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B397" t="s">
         <v>170</v>
@@ -11171,7 +11140,7 @@
         <v>195</v>
       </c>
       <c r="G397">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H397">
         <v>0</v>
@@ -11179,19 +11148,22 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="B398" t="s">
+        <v>170</v>
       </c>
       <c r="C398" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D398">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="E398">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="F398">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="G398">
         <v>2</v>
@@ -11205,31 +11177,31 @@
         <v>172</v>
       </c>
       <c r="C399" t="s">
+        <v>148</v>
+      </c>
+      <c r="D399">
+        <v>10</v>
+      </c>
+      <c r="E399">
+        <v>20</v>
+      </c>
+      <c r="F399">
+        <v>20</v>
+      </c>
+      <c r="G399">
+        <v>2</v>
+      </c>
+      <c r="H399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>172</v>
+      </c>
+      <c r="C400" t="s">
         <v>31</v>
       </c>
-      <c r="D399">
-        <v>10</v>
-      </c>
-      <c r="E399">
-        <v>20</v>
-      </c>
-      <c r="F399">
-        <v>20</v>
-      </c>
-      <c r="G399">
-        <v>1</v>
-      </c>
-      <c r="H399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A400">
-        <v>1848</v>
-      </c>
-      <c r="C400" t="s">
-        <v>148</v>
-      </c>
       <c r="D400">
         <v>10</v>
       </c>
@@ -11240,7 +11212,7 @@
         <v>20</v>
       </c>
       <c r="G400">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H400">
         <v>0</v>
@@ -11251,7 +11223,7 @@
         <v>1848</v>
       </c>
       <c r="C401" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="D401">
         <v>10</v>
@@ -11263,7 +11235,7 @@
         <v>20</v>
       </c>
       <c r="G401">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H401">
         <v>0</v>
@@ -11274,7 +11246,7 @@
         <v>1848</v>
       </c>
       <c r="C402" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="D402">
         <v>10</v>
@@ -11294,25 +11266,22 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>2101</v>
-      </c>
-      <c r="B403" t="s">
-        <v>8</v>
+        <v>1848</v>
       </c>
       <c r="C403" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="D403">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="E403">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="F403">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="G403">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H403">
         <v>0</v>
@@ -11326,7 +11295,7 @@
         <v>8</v>
       </c>
       <c r="C404" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="D404">
         <v>88</v>
@@ -11352,7 +11321,7 @@
         <v>8</v>
       </c>
       <c r="C405" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D405">
         <v>88</v>
@@ -11371,23 +11340,26 @@
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>174</v>
+      <c r="A406">
+        <v>2101</v>
+      </c>
+      <c r="B406" t="s">
+        <v>8</v>
       </c>
       <c r="C406" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D406">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="E406">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F406">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="G406">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H406">
         <v>0</v>
@@ -11398,7 +11370,7 @@
         <v>174</v>
       </c>
       <c r="C407" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="D407">
         <v>149</v>
@@ -11410,7 +11382,7 @@
         <v>195</v>
       </c>
       <c r="G407">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H407">
         <v>0</v>
@@ -11421,7 +11393,7 @@
         <v>174</v>
       </c>
       <c r="C408" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D408">
         <v>149</v>
@@ -11433,18 +11405,18 @@
         <v>195</v>
       </c>
       <c r="G408">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H408">
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A409">
-        <v>2015</v>
+      <c r="A409" t="s">
+        <v>174</v>
       </c>
       <c r="C409" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D409">
         <v>149</v>
@@ -11456,7 +11428,7 @@
         <v>195</v>
       </c>
       <c r="G409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H409">
         <v>0</v>
@@ -11467,7 +11439,7 @@
         <v>2015</v>
       </c>
       <c r="C410" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="D410">
         <v>149</v>
@@ -11479,7 +11451,7 @@
         <v>195</v>
       </c>
       <c r="G410">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H410">
         <v>0</v>
@@ -11487,10 +11459,10 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C411" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D411">
         <v>149</v>
@@ -11513,7 +11485,7 @@
         <v>2016</v>
       </c>
       <c r="C412" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="D412">
         <v>149</v>
@@ -11525,7 +11497,7 @@
         <v>195</v>
       </c>
       <c r="G412">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H412">
         <v>0</v>
@@ -11533,10 +11505,10 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>1836</v>
+        <v>2016</v>
       </c>
       <c r="C413" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D413">
         <v>149</v>
@@ -11556,25 +11528,22 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>906</v>
-      </c>
-      <c r="B414" t="s">
-        <v>25</v>
+        <v>1836</v>
       </c>
       <c r="C414" t="s">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="D414">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="E414">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="F414">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="G414">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H414">
         <v>0</v>
@@ -11588,7 +11557,7 @@
         <v>25</v>
       </c>
       <c r="C415" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D415">
         <v>62</v>
@@ -11614,7 +11583,7 @@
         <v>25</v>
       </c>
       <c r="C416" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D416">
         <v>62</v>
@@ -11626,7 +11595,7 @@
         <v>90</v>
       </c>
       <c r="G416">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H416">
         <v>0</v>
@@ -11640,7 +11609,7 @@
         <v>25</v>
       </c>
       <c r="C417" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="D417">
         <v>62</v>
@@ -11652,7 +11621,7 @@
         <v>90</v>
       </c>
       <c r="G417">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H417">
         <v>0</v>
@@ -11666,7 +11635,7 @@
         <v>25</v>
       </c>
       <c r="C418" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D418">
         <v>62</v>
@@ -11678,7 +11647,7 @@
         <v>90</v>
       </c>
       <c r="G418">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H418">
         <v>0</v>
@@ -11686,25 +11655,25 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>3250</v>
+        <v>906</v>
       </c>
       <c r="B419" t="s">
         <v>25</v>
       </c>
       <c r="C419" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D419">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E419">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F419">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G419">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H419">
         <v>0</v>
@@ -11712,13 +11681,13 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="B420" t="s">
         <v>25</v>
       </c>
       <c r="C420" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D420">
         <v>76</v>
@@ -11738,13 +11707,13 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>3252</v>
+        <v>3250</v>
       </c>
       <c r="B421" t="s">
         <v>25</v>
       </c>
       <c r="C421" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D421">
         <v>76</v>
@@ -11756,7 +11725,7 @@
         <v>110</v>
       </c>
       <c r="G421">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H421">
         <v>0</v>
@@ -11764,13 +11733,13 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="B422" t="s">
         <v>25</v>
       </c>
       <c r="C422" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D422">
         <v>76</v>
@@ -11790,13 +11759,13 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>3254</v>
+        <v>3250</v>
       </c>
       <c r="B423" t="s">
         <v>25</v>
       </c>
       <c r="C423" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D423">
         <v>76</v>
@@ -11808,7 +11777,7 @@
         <v>110</v>
       </c>
       <c r="G423">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H423">
         <v>0</v>
@@ -11816,22 +11785,25 @@
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>129</v>
+        <v>3250</v>
       </c>
       <c r="B424" t="s">
-        <v>178</v>
+        <v>25</v>
+      </c>
+      <c r="C424" t="s">
+        <v>75</v>
       </c>
       <c r="D424">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E424">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F424">
         <v>110</v>
       </c>
       <c r="G424">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H424">
         <v>0</v>
@@ -11839,16 +11811,19 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>8055</v>
+        <v>129</v>
+      </c>
+      <c r="B425" t="s">
+        <v>178</v>
       </c>
       <c r="D425">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E425">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F425">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G425">
         <v>2</v>
@@ -11857,57 +11832,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A427">
-        <v>2318</v>
-      </c>
-      <c r="B427" t="s">
-        <v>101</v>
-      </c>
-      <c r="C427" t="s">
-        <v>31</v>
-      </c>
-      <c r="D427">
-        <v>62</v>
-      </c>
-      <c r="E427">
-        <v>110</v>
-      </c>
-      <c r="F427">
-        <v>110</v>
-      </c>
-      <c r="G427">
-        <v>5</v>
-      </c>
-      <c r="H427">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>8055</v>
+      </c>
+      <c r="D426">
+        <v>10</v>
+      </c>
+      <c r="E426">
+        <v>20</v>
+      </c>
+      <c r="F426">
+        <v>20</v>
+      </c>
+      <c r="G426">
+        <v>2</v>
+      </c>
+      <c r="H426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>1838</v>
+        <v>2318</v>
       </c>
       <c r="B428" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="C428" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="D428">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E428">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F428">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G428">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H428">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -11918,7 +11887,7 @@
         <v>179</v>
       </c>
       <c r="C429" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D429">
         <v>100</v>
@@ -11933,18 +11902,18 @@
         <v>0</v>
       </c>
       <c r="H429">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B430" t="s">
         <v>179</v>
       </c>
       <c r="C430" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D430">
         <v>100</v>
@@ -11959,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="H430">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
@@ -11970,7 +11939,7 @@
         <v>179</v>
       </c>
       <c r="C431" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D431">
         <v>100</v>
@@ -11985,33 +11954,33 @@
         <v>0</v>
       </c>
       <c r="H431">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>799</v>
+        <v>1836</v>
       </c>
       <c r="B432" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="C432" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="D432">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E432">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F432">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G432">
         <v>0</v>
       </c>
       <c r="H432">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
@@ -12022,7 +11991,7 @@
         <v>108</v>
       </c>
       <c r="C433" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D433">
         <v>72</v>
@@ -12037,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="H433">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
@@ -12048,7 +12017,7 @@
         <v>108</v>
       </c>
       <c r="C434" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D434">
         <v>72</v>
@@ -12068,33 +12037,33 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B435" t="s">
         <v>108</v>
       </c>
       <c r="C435" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D435">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E435">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F435">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G435">
         <v>0</v>
       </c>
       <c r="H435">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>170</v>
+        <v>806</v>
       </c>
       <c r="B436" t="s">
         <v>108</v>
@@ -12103,30 +12072,30 @@
         <v>31</v>
       </c>
       <c r="D436">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E436">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F436">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G436">
         <v>0</v>
       </c>
       <c r="H436">
-        <v>250</v>
+        <v>12</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B437" t="s">
         <v>108</v>
       </c>
       <c r="C437" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D437">
         <v>83</v>
@@ -12141,18 +12110,18 @@
         <v>0</v>
       </c>
       <c r="H437">
-        <v>119</v>
+        <v>250</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B438" t="s">
         <v>108</v>
       </c>
       <c r="C438" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D438">
         <v>83</v>
@@ -12172,28 +12141,28 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>2700</v>
+        <v>172</v>
       </c>
       <c r="B439" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="C439" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D439">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="E439">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="F439">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="G439">
         <v>0</v>
       </c>
       <c r="H439">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
@@ -12204,7 +12173,7 @@
         <v>182</v>
       </c>
       <c r="C440" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D440">
         <v>152</v>
@@ -12219,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="H440">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -12230,7 +12199,7 @@
         <v>182</v>
       </c>
       <c r="C441" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D441">
         <v>152</v>
@@ -12256,7 +12225,7 @@
         <v>182</v>
       </c>
       <c r="C442" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D442">
         <v>152</v>
@@ -12271,33 +12240,33 @@
         <v>0</v>
       </c>
       <c r="H442">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>983</v>
+        <v>2700</v>
       </c>
       <c r="B443" t="s">
         <v>182</v>
       </c>
       <c r="C443" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D443">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="E443">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="F443">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="G443">
         <v>0</v>
       </c>
       <c r="H443">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -12308,7 +12277,7 @@
         <v>182</v>
       </c>
       <c r="C444" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D444">
         <v>87</v>
@@ -12323,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="H444">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
@@ -12334,7 +12303,7 @@
         <v>182</v>
       </c>
       <c r="C445" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D445">
         <v>87</v>
@@ -12360,7 +12329,7 @@
         <v>182</v>
       </c>
       <c r="C446" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D446">
         <v>87</v>
@@ -12386,7 +12355,7 @@
         <v>182</v>
       </c>
       <c r="C447" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D447">
         <v>87</v>
@@ -12406,28 +12375,28 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B448" t="s">
         <v>182</v>
       </c>
       <c r="C448" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="D448">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="E448">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="F448">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="G448">
         <v>0</v>
       </c>
       <c r="H448">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -12438,7 +12407,7 @@
         <v>182</v>
       </c>
       <c r="C449" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D449">
         <v>143</v>
@@ -12453,18 +12422,18 @@
         <v>0</v>
       </c>
       <c r="H449">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B450" t="s">
         <v>182</v>
       </c>
       <c r="C450" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D450">
         <v>143</v>
@@ -12479,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="H450">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
@@ -12490,7 +12459,7 @@
         <v>182</v>
       </c>
       <c r="C451" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D451">
         <v>143</v>
@@ -12505,18 +12474,18 @@
         <v>0</v>
       </c>
       <c r="H451">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B452" t="s">
         <v>182</v>
       </c>
       <c r="C452" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D452">
         <v>143</v>
@@ -12531,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="H452">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
@@ -12542,7 +12511,7 @@
         <v>182</v>
       </c>
       <c r="C453" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D453">
         <v>143</v>
@@ -12557,33 +12526,33 @@
         <v>0</v>
       </c>
       <c r="H453">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>9005</v>
+        <v>986</v>
       </c>
       <c r="B454" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C454" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D454">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="E454">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="F454">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="G454">
         <v>0</v>
       </c>
       <c r="H454">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
@@ -12594,7 +12563,7 @@
         <v>187</v>
       </c>
       <c r="C455" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="D455">
         <v>72</v>
@@ -12609,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="H455">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
@@ -12620,7 +12589,7 @@
         <v>187</v>
       </c>
       <c r="C456" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="D456">
         <v>72</v>
@@ -12646,7 +12615,7 @@
         <v>187</v>
       </c>
       <c r="C457" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="D457">
         <v>72</v>
@@ -12661,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="H457">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
@@ -12672,7 +12641,7 @@
         <v>187</v>
       </c>
       <c r="C458" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D458">
         <v>72</v>
@@ -12698,7 +12667,7 @@
         <v>187</v>
       </c>
       <c r="C459" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="D459">
         <v>72</v>
@@ -12718,28 +12687,28 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>20172</v>
+        <v>9005</v>
       </c>
       <c r="B460" t="s">
         <v>187</v>
       </c>
       <c r="C460" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="D460">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E460">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F460">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G460">
         <v>0</v>
       </c>
       <c r="H460">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -12750,7 +12719,7 @@
         <v>187</v>
       </c>
       <c r="C461" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="D461">
         <v>89</v>
@@ -12765,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="H461">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
@@ -12776,7 +12745,7 @@
         <v>187</v>
       </c>
       <c r="C462" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D462">
         <v>89</v>
@@ -12796,28 +12765,28 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>20156</v>
+        <v>20172</v>
       </c>
       <c r="B463" t="s">
         <v>187</v>
       </c>
       <c r="C463" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="D463">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E463">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F463">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G463">
         <v>0</v>
       </c>
       <c r="H463">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -12828,7 +12797,7 @@
         <v>187</v>
       </c>
       <c r="C464" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="D464">
         <v>66</v>
@@ -12843,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="H464">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
@@ -12854,7 +12823,7 @@
         <v>187</v>
       </c>
       <c r="C465" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D465">
         <v>66</v>
@@ -12873,14 +12842,14 @@
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>191</v>
+      <c r="A466">
+        <v>20156</v>
       </c>
       <c r="B466" t="s">
         <v>187</v>
       </c>
       <c r="C466" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="D466">
         <v>66</v>
@@ -12895,7 +12864,7 @@
         <v>0</v>
       </c>
       <c r="H466">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
@@ -12906,7 +12875,7 @@
         <v>187</v>
       </c>
       <c r="C467" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="D467">
         <v>66</v>
@@ -12921,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="H467">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
@@ -12932,7 +12901,7 @@
         <v>187</v>
       </c>
       <c r="C468" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D468">
         <v>66</v>
@@ -12958,7 +12927,7 @@
         <v>187</v>
       </c>
       <c r="C469" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="D469">
         <v>66</v>
@@ -12977,17 +12946,17 @@
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A470">
-        <v>9008</v>
+      <c r="A470" t="s">
+        <v>191</v>
       </c>
       <c r="B470" t="s">
         <v>187</v>
       </c>
       <c r="C470" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D470">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E470">
         <v>100</v>
@@ -12999,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="H470">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
@@ -13010,7 +12979,7 @@
         <v>187</v>
       </c>
       <c r="C471" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="D471">
         <v>72</v>
@@ -13025,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="H471">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
@@ -13036,7 +13005,7 @@
         <v>187</v>
       </c>
       <c r="C472" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D472">
         <v>72</v>
@@ -13056,28 +13025,28 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>66956</v>
+        <v>9008</v>
       </c>
       <c r="B473" t="s">
         <v>187</v>
       </c>
       <c r="C473" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D473">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="E473">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="F473">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G473">
         <v>0</v>
       </c>
       <c r="H473">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
@@ -13088,7 +13057,7 @@
         <v>187</v>
       </c>
       <c r="C474" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D474">
         <v>110</v>
@@ -13114,7 +13083,7 @@
         <v>187</v>
       </c>
       <c r="C475" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D475">
         <v>110</v>
@@ -13140,7 +13109,7 @@
         <v>187</v>
       </c>
       <c r="C476" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="D476">
         <v>110</v>
@@ -13155,33 +13124,33 @@
         <v>0</v>
       </c>
       <c r="H476">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>193</v>
+      <c r="A477">
+        <v>66956</v>
       </c>
       <c r="B477" t="s">
         <v>187</v>
       </c>
       <c r="C477" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="D477">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="E477">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="F477">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="G477">
         <v>0</v>
       </c>
       <c r="H477">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -13192,7 +13161,7 @@
         <v>187</v>
       </c>
       <c r="C478" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D478">
         <v>64</v>
@@ -13218,7 +13187,7 @@
         <v>187</v>
       </c>
       <c r="C479" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D479">
         <v>64</v>
@@ -13244,7 +13213,7 @@
         <v>187</v>
       </c>
       <c r="C480" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="D480">
         <v>64</v>
@@ -13259,18 +13228,18 @@
         <v>0</v>
       </c>
       <c r="H480">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B481" t="s">
         <v>187</v>
       </c>
       <c r="C481" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="D481">
         <v>64</v>
@@ -13285,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="H481">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
@@ -13296,7 +13265,7 @@
         <v>187</v>
       </c>
       <c r="C482" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D482">
         <v>64</v>
@@ -13322,7 +13291,7 @@
         <v>187</v>
       </c>
       <c r="C483" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D483">
         <v>64</v>
@@ -13348,7 +13317,7 @@
         <v>187</v>
       </c>
       <c r="C484" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="D484">
         <v>64</v>
@@ -13363,21 +13332,21 @@
         <v>0</v>
       </c>
       <c r="H484">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B485" t="s">
         <v>187</v>
       </c>
       <c r="C485" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="D485">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E485">
         <v>100</v>
@@ -13389,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="H485">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
@@ -13400,7 +13369,7 @@
         <v>187</v>
       </c>
       <c r="C486" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D486">
         <v>68</v>
@@ -13426,7 +13395,7 @@
         <v>187</v>
       </c>
       <c r="C487" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D487">
         <v>68</v>
@@ -13452,7 +13421,7 @@
         <v>187</v>
       </c>
       <c r="C488" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="D488">
         <v>68</v>
@@ -13467,33 +13436,33 @@
         <v>0</v>
       </c>
       <c r="H488">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B489" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C489" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D489">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="E489">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="F489">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="G489">
         <v>0</v>
       </c>
       <c r="H489">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
@@ -13504,7 +13473,7 @@
         <v>196</v>
       </c>
       <c r="C490" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D490">
         <v>153</v>
@@ -13530,7 +13499,7 @@
         <v>196</v>
       </c>
       <c r="C491" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D491">
         <v>153</v>
@@ -13556,7 +13525,7 @@
         <v>196</v>
       </c>
       <c r="C492" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="D492">
         <v>153</v>
@@ -13574,33 +13543,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="493" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A494">
-        <v>8048</v>
-      </c>
-      <c r="B494" t="s">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>197</v>
+      </c>
+      <c r="B493" t="s">
         <v>196</v>
       </c>
-      <c r="C494" t="s">
-        <v>99</v>
-      </c>
-      <c r="D494">
+      <c r="C493" t="s">
+        <v>198</v>
+      </c>
+      <c r="D493">
         <v>153</v>
       </c>
-      <c r="E494">
-        <v>195</v>
-      </c>
-      <c r="F494">
-        <v>195</v>
-      </c>
-      <c r="G494">
-        <v>0</v>
-      </c>
-      <c r="H494">
+      <c r="E493">
+        <v>195</v>
+      </c>
+      <c r="F493">
+        <v>195</v>
+      </c>
+      <c r="G493">
+        <v>0</v>
+      </c>
+      <c r="H493">
         <v>50</v>
       </c>
     </row>
+    <row r="494" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>8048</v>
@@ -13609,7 +13578,7 @@
         <v>196</v>
       </c>
       <c r="C495" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D495">
         <v>153</v>
@@ -13635,7 +13604,7 @@
         <v>196</v>
       </c>
       <c r="C496" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D496">
         <v>153</v>
@@ -13661,7 +13630,7 @@
         <v>196</v>
       </c>
       <c r="C497" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="D497">
         <v>153</v>
@@ -13681,13 +13650,13 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>8400</v>
+        <v>8048</v>
       </c>
       <c r="B498" t="s">
         <v>196</v>
       </c>
       <c r="C498" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="D498">
         <v>153</v>
@@ -13713,7 +13682,7 @@
         <v>196</v>
       </c>
       <c r="C499" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D499">
         <v>153</v>
@@ -13739,7 +13708,7 @@
         <v>196</v>
       </c>
       <c r="C500" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D500">
         <v>153</v>
@@ -13765,7 +13734,7 @@
         <v>196</v>
       </c>
       <c r="C501" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="D501">
         <v>153</v>
@@ -13785,13 +13754,13 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>6048</v>
+        <v>8400</v>
       </c>
       <c r="B502" t="s">
         <v>196</v>
       </c>
       <c r="C502" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="D502">
         <v>153</v>
@@ -13817,7 +13786,7 @@
         <v>196</v>
       </c>
       <c r="C503" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D503">
         <v>153</v>
@@ -13843,7 +13812,7 @@
         <v>196</v>
       </c>
       <c r="C504" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D504">
         <v>153</v>
@@ -13869,7 +13838,7 @@
         <v>196</v>
       </c>
       <c r="C505" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="D505">
         <v>153</v>
@@ -13889,13 +13858,13 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>3104</v>
+        <v>6048</v>
       </c>
       <c r="B506" t="s">
         <v>196</v>
       </c>
       <c r="C506" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="D506">
         <v>153</v>
@@ -13921,7 +13890,7 @@
         <v>196</v>
       </c>
       <c r="C507" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D507">
         <v>153</v>
@@ -13947,7 +13916,7 @@
         <v>196</v>
       </c>
       <c r="C508" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D508">
         <v>153</v>
@@ -13973,7 +13942,7 @@
         <v>196</v>
       </c>
       <c r="C509" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="D509">
         <v>153</v>
@@ -13993,16 +13962,16 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="B510" t="s">
         <v>196</v>
       </c>
       <c r="C510" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="D510">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E510">
         <v>195</v>
@@ -14025,7 +13994,7 @@
         <v>196</v>
       </c>
       <c r="C511" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D511">
         <v>151</v>
@@ -14051,7 +14020,7 @@
         <v>196</v>
       </c>
       <c r="C512" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D512">
         <v>151</v>
@@ -14077,7 +14046,7 @@
         <v>196</v>
       </c>
       <c r="C513" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="D513">
         <v>151</v>
@@ -14097,16 +14066,16 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>8153</v>
+        <v>3105</v>
       </c>
       <c r="B514" t="s">
         <v>196</v>
       </c>
       <c r="C514" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="D514">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E514">
         <v>195</v>
@@ -14118,7 +14087,7 @@
         <v>0</v>
       </c>
       <c r="H514">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
@@ -14129,7 +14098,7 @@
         <v>196</v>
       </c>
       <c r="C515" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D515">
         <v>157</v>
@@ -14155,7 +14124,7 @@
         <v>196</v>
       </c>
       <c r="C516" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D516">
         <v>157</v>
@@ -14181,7 +14150,7 @@
         <v>196</v>
       </c>
       <c r="C517" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="D517">
         <v>157</v>
@@ -14196,7 +14165,7 @@
         <v>0</v>
       </c>
       <c r="H517">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
@@ -14207,7 +14176,7 @@
         <v>196</v>
       </c>
       <c r="C518" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="D518">
         <v>157</v>
@@ -14222,18 +14191,18 @@
         <v>0</v>
       </c>
       <c r="H518">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>3103</v>
+        <v>8153</v>
       </c>
       <c r="B519" t="s">
         <v>196</v>
       </c>
       <c r="C519" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D519">
         <v>157</v>
@@ -14248,7 +14217,7 @@
         <v>0</v>
       </c>
       <c r="H519">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
@@ -14259,7 +14228,7 @@
         <v>196</v>
       </c>
       <c r="C520" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D520">
         <v>157</v>
@@ -14274,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H520">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
@@ -14285,7 +14254,7 @@
         <v>196</v>
       </c>
       <c r="C521" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D521">
         <v>157</v>
@@ -14300,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="H521">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
@@ -14311,7 +14280,7 @@
         <v>196</v>
       </c>
       <c r="C522" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="D522">
         <v>157</v>
@@ -14337,7 +14306,7 @@
         <v>196</v>
       </c>
       <c r="C523" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="D523">
         <v>157</v>
@@ -14357,16 +14326,16 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>208</v>
+        <v>3103</v>
       </c>
       <c r="B524" t="s">
         <v>196</v>
       </c>
       <c r="C524" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D524">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E524">
         <v>195</v>
@@ -14378,7 +14347,7 @@
         <v>0</v>
       </c>
       <c r="H524">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
@@ -14389,7 +14358,7 @@
         <v>196</v>
       </c>
       <c r="C525" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D525">
         <v>153</v>
@@ -14404,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="H525">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
@@ -14415,7 +14384,7 @@
         <v>196</v>
       </c>
       <c r="C526" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D526">
         <v>153</v>
@@ -14435,28 +14404,28 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>72331</v>
+        <v>208</v>
       </c>
       <c r="B527" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C527" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D527">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="E527">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="F527">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="G527">
         <v>0</v>
       </c>
       <c r="H527">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
@@ -14467,7 +14436,7 @@
         <v>199</v>
       </c>
       <c r="C528" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D528">
         <v>109</v>
@@ -14482,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="H528">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
@@ -14493,7 +14462,7 @@
         <v>199</v>
       </c>
       <c r="C529" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="D529">
         <v>109</v>
@@ -14519,7 +14488,7 @@
         <v>199</v>
       </c>
       <c r="C530" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D530">
         <v>109</v>
@@ -14538,29 +14507,29 @@
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
-        <v>201</v>
+      <c r="A531">
+        <v>72331</v>
       </c>
       <c r="B531" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C531" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D531">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E531">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="F531">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="G531">
         <v>0</v>
       </c>
       <c r="H531">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
@@ -14571,7 +14540,7 @@
         <v>200</v>
       </c>
       <c r="C532" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D532">
         <v>68</v>
@@ -14586,7 +14555,7 @@
         <v>0</v>
       </c>
       <c r="H532">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
@@ -14597,7 +14566,7 @@
         <v>200</v>
       </c>
       <c r="C533" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D533">
         <v>68</v>
@@ -14616,17 +14585,17 @@
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A534">
-        <v>9838</v>
+      <c r="A534" t="s">
+        <v>201</v>
       </c>
       <c r="B534" t="s">
         <v>200</v>
       </c>
       <c r="C534" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D534">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E534">
         <v>90</v>
@@ -14638,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="H534">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
@@ -14649,7 +14618,7 @@
         <v>200</v>
       </c>
       <c r="C535" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D535">
         <v>76</v>
@@ -14664,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="H535">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
@@ -14675,7 +14644,7 @@
         <v>200</v>
       </c>
       <c r="C536" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D536">
         <v>76</v>
@@ -14695,16 +14664,16 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>8301</v>
+        <v>9838</v>
       </c>
       <c r="B537" t="s">
         <v>200</v>
       </c>
       <c r="C537" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="D537">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E537">
         <v>90</v>
@@ -14716,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="H537">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
@@ -14727,7 +14696,7 @@
         <v>200</v>
       </c>
       <c r="C538" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D538">
         <v>80</v>
@@ -14753,7 +14722,7 @@
         <v>200</v>
       </c>
       <c r="C539" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D539">
         <v>80</v>
@@ -14779,7 +14748,7 @@
         <v>200</v>
       </c>
       <c r="C540" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D540">
         <v>80</v>
@@ -14799,16 +14768,16 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>8320</v>
+        <v>8301</v>
       </c>
       <c r="B541" t="s">
         <v>200</v>
       </c>
       <c r="C541" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D541">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E541">
         <v>90</v>
@@ -14831,7 +14800,7 @@
         <v>200</v>
       </c>
       <c r="C542" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D542">
         <v>76</v>
@@ -14857,7 +14826,7 @@
         <v>200</v>
       </c>
       <c r="C543" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D543">
         <v>76</v>
@@ -14883,7 +14852,7 @@
         <v>200</v>
       </c>
       <c r="C544" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D544">
         <v>76</v>
@@ -14903,13 +14872,13 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>9983</v>
+        <v>8320</v>
       </c>
       <c r="B545" t="s">
         <v>200</v>
       </c>
       <c r="C545" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="D545">
         <v>76</v>
@@ -14924,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="H545">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
@@ -14935,7 +14904,7 @@
         <v>200</v>
       </c>
       <c r="C546" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="D546">
         <v>76</v>
@@ -14950,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="H546">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
@@ -14961,7 +14930,7 @@
         <v>200</v>
       </c>
       <c r="C547" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D547">
         <v>76</v>
@@ -14976,6 +14945,32 @@
         <v>0</v>
       </c>
       <c r="H547">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>9983</v>
+      </c>
+      <c r="B548" t="s">
+        <v>200</v>
+      </c>
+      <c r="C548" t="s">
+        <v>104</v>
+      </c>
+      <c r="D548">
+        <v>76</v>
+      </c>
+      <c r="E548">
+        <v>90</v>
+      </c>
+      <c r="F548">
+        <v>90</v>
+      </c>
+      <c r="G548">
+        <v>0</v>
+      </c>
+      <c r="H548">
         <v>25</v>
       </c>
     </row>
